--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3g-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3g-Nrp2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.79159866666667</v>
+        <v>11.96715833333333</v>
       </c>
       <c r="H2">
-        <v>41.374796</v>
+        <v>35.901475</v>
       </c>
       <c r="I2">
-        <v>0.9231594435972904</v>
+        <v>0.8213389035667636</v>
       </c>
       <c r="J2">
-        <v>0.9231594435972905</v>
+        <v>0.8213389035667636</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.632955</v>
+        <v>57.65261933333333</v>
       </c>
       <c r="N2">
-        <v>94.898865</v>
+        <v>172.957858</v>
       </c>
       <c r="O2">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="P2">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="Q2">
-        <v>436.2690200007266</v>
+        <v>689.9380238933943</v>
       </c>
       <c r="R2">
-        <v>3926.42118000654</v>
+        <v>6209.442215040549</v>
       </c>
       <c r="S2">
-        <v>0.4616111107567504</v>
+        <v>0.5599117366222056</v>
       </c>
       <c r="T2">
-        <v>0.4616111107567504</v>
+        <v>0.5599117366222056</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.79159866666667</v>
+        <v>11.96715833333333</v>
       </c>
       <c r="H3">
-        <v>41.374796</v>
+        <v>35.901475</v>
       </c>
       <c r="I3">
-        <v>0.9231594435972904</v>
+        <v>0.8213389035667636</v>
       </c>
       <c r="J3">
-        <v>0.9231594435972905</v>
+        <v>0.8213389035667636</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>25.86682</v>
       </c>
       <c r="O3">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="P3">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="Q3">
-        <v>118.9149334076355</v>
+        <v>103.1841101732778</v>
       </c>
       <c r="R3">
-        <v>1070.23440066872</v>
+        <v>928.6569915594998</v>
       </c>
       <c r="S3">
-        <v>0.1258224902051771</v>
+        <v>0.0837379479288764</v>
       </c>
       <c r="T3">
-        <v>0.1258224902051771</v>
+        <v>0.0837379479288764</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.79159866666667</v>
+        <v>11.96715833333333</v>
       </c>
       <c r="H4">
-        <v>41.374796</v>
+        <v>35.901475</v>
       </c>
       <c r="I4">
-        <v>0.9231594435972904</v>
+        <v>0.8213389035667636</v>
       </c>
       <c r="J4">
-        <v>0.9231594435972905</v>
+        <v>0.8213389035667636</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.297619333333333</v>
+        <v>2.790736</v>
       </c>
       <c r="N4">
-        <v>12.892858</v>
+        <v>8.372208000000001</v>
       </c>
       <c r="O4">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="P4">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="Q4">
-        <v>59.27104106744088</v>
+        <v>33.39717957853333</v>
       </c>
       <c r="R4">
-        <v>533.4393696069679</v>
+        <v>300.5746162068</v>
       </c>
       <c r="S4">
-        <v>0.06271399033285652</v>
+        <v>0.02710311965497586</v>
       </c>
       <c r="T4">
-        <v>0.06271399033285653</v>
+        <v>0.02710311965497585</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.79159866666667</v>
+        <v>11.96715833333333</v>
       </c>
       <c r="H5">
-        <v>41.374796</v>
+        <v>35.901475</v>
       </c>
       <c r="I5">
-        <v>0.9231594435972904</v>
+        <v>0.8213389035667636</v>
       </c>
       <c r="J5">
-        <v>0.9231594435972905</v>
+        <v>0.8213389035667636</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.70876033333333</v>
+        <v>15.50544933333333</v>
       </c>
       <c r="N5">
-        <v>56.126281</v>
+        <v>46.516348</v>
       </c>
       <c r="O5">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="P5">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="Q5">
-        <v>258.0237140681862</v>
+        <v>185.5561672014778</v>
       </c>
       <c r="R5">
-        <v>2322.213426613676</v>
+        <v>1670.0055048133</v>
       </c>
       <c r="S5">
-        <v>0.2730118523025064</v>
+        <v>0.1505860993607059</v>
       </c>
       <c r="T5">
-        <v>0.2730118523025065</v>
+        <v>0.1505860993607059</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.375927</v>
       </c>
       <c r="I6">
-        <v>0.008387728610267918</v>
+        <v>0.008600300405516565</v>
       </c>
       <c r="J6">
-        <v>0.00838772861026792</v>
+        <v>0.008600300405516565</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.632955</v>
+        <v>57.65261933333333</v>
       </c>
       <c r="N6">
-        <v>94.898865</v>
+        <v>172.957858</v>
       </c>
       <c r="O6">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="P6">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="Q6">
-        <v>3.963893958095</v>
+        <v>7.224392076040666</v>
       </c>
       <c r="R6">
-        <v>35.675045622855</v>
+        <v>65.01952868436599</v>
       </c>
       <c r="S6">
-        <v>0.004194149501871935</v>
+        <v>0.005862877205272929</v>
       </c>
       <c r="T6">
-        <v>0.004194149501871936</v>
+        <v>0.005862877205272929</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.375927</v>
       </c>
       <c r="I7">
-        <v>0.008387728610267918</v>
+        <v>0.008600300405516565</v>
       </c>
       <c r="J7">
-        <v>0.00838772861026792</v>
+        <v>0.008600300405516565</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>25.86682</v>
       </c>
       <c r="O7">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="P7">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="Q7">
         <v>1.080448449126667</v>
@@ -883,10 +883,10 @@
         <v>9.72403604214</v>
       </c>
       <c r="S7">
-        <v>0.001143209776197123</v>
+        <v>0.0008768262460263464</v>
       </c>
       <c r="T7">
-        <v>0.001143209776197123</v>
+        <v>0.0008768262460263464</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.375927</v>
       </c>
       <c r="I8">
-        <v>0.008387728610267918</v>
+        <v>0.008600300405516565</v>
       </c>
       <c r="J8">
-        <v>0.00838772861026792</v>
+        <v>0.008600300405516565</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.297619333333333</v>
+        <v>2.790736</v>
       </c>
       <c r="N8">
-        <v>12.892858</v>
+        <v>8.372208000000001</v>
       </c>
       <c r="O8">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="P8">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="Q8">
-        <v>0.5385303810406668</v>
+        <v>0.349704337424</v>
       </c>
       <c r="R8">
-        <v>4.846773429366</v>
+        <v>3.147339036816</v>
       </c>
       <c r="S8">
-        <v>0.0005698126522209259</v>
+        <v>0.0002837987704554231</v>
       </c>
       <c r="T8">
-        <v>0.000569812652220926</v>
+        <v>0.0002837987704554231</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.375927</v>
       </c>
       <c r="I9">
-        <v>0.008387728610267918</v>
+        <v>0.008600300405516565</v>
       </c>
       <c r="J9">
-        <v>0.00838772861026792</v>
+        <v>0.008600300405516565</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.70876033333333</v>
+        <v>15.50544933333333</v>
       </c>
       <c r="N9">
-        <v>56.126281</v>
+        <v>46.516348</v>
       </c>
       <c r="O9">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="P9">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="Q9">
-        <v>2.344376048609667</v>
+        <v>1.942972350510667</v>
       </c>
       <c r="R9">
-        <v>21.099384437487</v>
+        <v>17.486751154596</v>
       </c>
       <c r="S9">
-        <v>0.002480556679977935</v>
+        <v>0.001576798183761867</v>
       </c>
       <c r="T9">
-        <v>0.002480556679977935</v>
+        <v>0.001576798183761867</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.022655333333333</v>
+        <v>2.477837666666666</v>
       </c>
       <c r="H10">
-        <v>3.067966</v>
+        <v>7.433513</v>
       </c>
       <c r="I10">
-        <v>0.06845282779244168</v>
+        <v>0.1700607960277199</v>
       </c>
       <c r="J10">
-        <v>0.06845282779244168</v>
+        <v>0.1700607960277199</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.632955</v>
+        <v>57.65261933333333</v>
       </c>
       <c r="N10">
-        <v>94.898865</v>
+        <v>172.957858</v>
       </c>
       <c r="O10">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="P10">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="Q10">
-        <v>32.34961013984333</v>
+        <v>142.8538317661282</v>
       </c>
       <c r="R10">
-        <v>291.14649125859</v>
+        <v>1285.684485895154</v>
       </c>
       <c r="S10">
-        <v>0.03422874140633695</v>
+        <v>0.1159314811726744</v>
       </c>
       <c r="T10">
-        <v>0.03422874140633695</v>
+        <v>0.1159314811726744</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.022655333333333</v>
+        <v>2.477837666666666</v>
       </c>
       <c r="H11">
-        <v>3.067966</v>
+        <v>7.433513</v>
       </c>
       <c r="I11">
-        <v>0.06845282779244168</v>
+        <v>0.1700607960277199</v>
       </c>
       <c r="J11">
-        <v>0.06845282779244168</v>
+        <v>0.1700607960277199</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>25.86682</v>
       </c>
       <c r="O11">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="P11">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="Q11">
-        <v>8.817613809791109</v>
+        <v>21.36459363762888</v>
       </c>
       <c r="R11">
-        <v>79.35852428811998</v>
+        <v>192.28134273866</v>
       </c>
       <c r="S11">
-        <v>0.009329813299497993</v>
+        <v>0.01733820475405609</v>
       </c>
       <c r="T11">
-        <v>0.009329813299497993</v>
+        <v>0.01733820475405609</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.022655333333333</v>
+        <v>2.477837666666666</v>
       </c>
       <c r="H12">
-        <v>3.067966</v>
+        <v>7.433513</v>
       </c>
       <c r="I12">
-        <v>0.06845282779244168</v>
+        <v>0.1700607960277199</v>
       </c>
       <c r="J12">
-        <v>0.06845282779244168</v>
+        <v>0.1700607960277199</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.297619333333333</v>
+        <v>2.790736</v>
       </c>
       <c r="N12">
-        <v>12.892858</v>
+        <v>8.372208000000001</v>
       </c>
       <c r="O12">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="P12">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="Q12">
-        <v>4.394983331869778</v>
+        <v>6.914990778522666</v>
       </c>
       <c r="R12">
-        <v>39.554849986828</v>
+        <v>62.234917006704</v>
       </c>
       <c r="S12">
-        <v>0.004650280089973918</v>
+        <v>0.005611785930684424</v>
       </c>
       <c r="T12">
-        <v>0.004650280089973918</v>
+        <v>0.005611785930684422</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.022655333333333</v>
+        <v>2.477837666666666</v>
       </c>
       <c r="H13">
-        <v>3.067966</v>
+        <v>7.433513</v>
       </c>
       <c r="I13">
-        <v>0.06845282779244168</v>
+        <v>0.1700607960277199</v>
       </c>
       <c r="J13">
-        <v>0.06845282779244168</v>
+        <v>0.1700607960277199</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.70876033333333</v>
+        <v>15.50544933333333</v>
       </c>
       <c r="N13">
-        <v>56.126281</v>
+        <v>46.516348</v>
       </c>
       <c r="O13">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="P13">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="Q13">
-        <v>19.13261353493844</v>
+        <v>38.41998639672488</v>
       </c>
       <c r="R13">
-        <v>172.193521814446</v>
+        <v>345.779877570524</v>
       </c>
       <c r="S13">
-        <v>0.02024399299663281</v>
+        <v>0.03117932417030495</v>
       </c>
       <c r="T13">
-        <v>0.02024399299663281</v>
+        <v>0.03117932417030495</v>
       </c>
     </row>
   </sheetData>
